--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject27.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject27.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.57706046606393113</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -212,7 +212,7 @@
         <v>0</v>
       </c>
       <c r="AC1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD1" s="0">
         <v>0</v>
@@ -311,7 +311,7 @@
         <v>0</v>
       </c>
       <c r="BJ1" s="0">
-        <v>0</v>
+        <v>0.81292159141504106</v>
       </c>
       <c r="BK1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1" s="0">
         <v>0</v>
@@ -334,16 +334,16 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>1</v>
+        <v>0.9993806985796192</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.71642420282907149</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -535,21 +535,21 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.71593739478407648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.96110082545191533</v>
       </c>
       <c r="B3" s="0">
-        <v>1</v>
+        <v>0.92288602286586441</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.6897089149062996</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="0">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="AR3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="0">
         <v>0</v>
@@ -720,7 +720,7 @@
         <v>0</v>
       </c>
       <c r="BI3" s="0">
-        <v>0</v>
+        <v>0.88299215152694344</v>
       </c>
       <c r="BJ3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.95417425971606762</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.59588791228156879</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.50987537930513738</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="0">
-        <v>0</v>
+        <v>0.5789075592163474</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="0">
-        <v>0</v>
+        <v>0.64531391387976533</v>
       </c>
       <c r="Y4" s="0">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="AP4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="0">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="BF4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG4" s="0">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="BI4" s="0">
-        <v>0</v>
+        <v>0.84541825834657125</v>
       </c>
       <c r="BJ4" s="0">
         <v>0</v>
@@ -961,16 +961,16 @@
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.96790450532032479</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.80882384136351171</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="0">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="AQ5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="0">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="BC5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="0">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="BG5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" s="0">
         <v>0</v>
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>0.50119358831804162</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.9523386621109009</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="0">
-        <v>1</v>
+        <v>0.74992901814332424</v>
       </c>
       <c r="Q6" s="0">
         <v>0</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="AG6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" s="0">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.90236873251853367</v>
       </c>
       <c r="F7" s="0">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0</v>
+        <v>0.96961960219326793</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.69998820410446139</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="0">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0</v>
+        <v>0.65101129288136939</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0.57041898036404604</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.7814579538484312</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1794,22 +1794,22 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.89534281103700408</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0.84486099753548283</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>0.54453665191728451</v>
       </c>
       <c r="L9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="0">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="0">
-        <v>0</v>
+        <v>0.66667470444756249</v>
       </c>
       <c r="S9" s="0">
         <v>0</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="AY9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ9" s="0">
         <v>0</v>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="BB9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.56044375858964446</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0.83177773762442175</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.51604309108080504</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="0">
-        <v>0</v>
+        <v>0.69018585111505093</v>
       </c>
       <c r="X10" s="0">
         <v>0</v>
@@ -2200,31 +2200,31 @@
         <v>0</v>
       </c>
       <c r="E11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="0">
         <v>0</v>
       </c>
       <c r="G11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="0">
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0</v>
+        <v>0.54033075788977669</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0.87837628519237487</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0</v>
+        <v>0.95702964548208347</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.95929240412832928</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="AW11" s="0">
-        <v>0</v>
+        <v>0.85436868324846849</v>
       </c>
       <c r="AX11" s="0">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>0</v>
       </c>
       <c r="I12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.72689287498372179</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>0.6849452082331231</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0</v>
+        <v>0.97474107691352319</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="AD12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="0">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="AW12" s="0">
-        <v>0</v>
+        <v>0.90911445705451532</v>
       </c>
       <c r="AX12" s="0">
         <v>0</v>
@@ -2630,25 +2630,25 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.79718809044935157</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0</v>
+        <v>0.76658833869072818</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0.74209199465588749</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>0</v>
+        <v>0.7480409501294899</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
       <c r="BC13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="0">
         <v>0</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="BN13" s="0">
-        <v>0</v>
+        <v>0.69032237693478304</v>
       </c>
       <c r="BO13" s="0">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0</v>
+        <v>0.97657581575532681</v>
       </c>
       <c r="M14" s="0">
-        <v>0</v>
+        <v>0.69091489598753197</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.7859744046415077</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="0">
-        <v>0</v>
+        <v>0.97309020556738668</v>
       </c>
       <c r="AB14" s="0">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="0">
-        <v>0</v>
+        <v>0.6306890490012107</v>
       </c>
       <c r="E15" s="0">
         <v>0</v>
@@ -3048,16 +3048,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0.94316817674255304</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.93349466844673978</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="0">
         <v>0</v>
@@ -3138,13 +3138,13 @@
         <v>0</v>
       </c>
       <c r="AQ15" s="0">
-        <v>0</v>
+        <v>0.96610494848358663</v>
       </c>
       <c r="AR15" s="0">
         <v>0</v>
       </c>
       <c r="AS15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="0">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="0">
-        <v>1</v>
+        <v>0.83626237631722988</v>
       </c>
       <c r="G16" s="0">
         <v>0</v>
@@ -3260,16 +3260,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.92869094038679911</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="0">
-        <v>0</v>
+        <v>0.5398745184573176</v>
       </c>
       <c r="AB16" s="0">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="0">
-        <v>0</v>
+        <v>0.84194077122452671</v>
       </c>
       <c r="N17" s="0">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.78320451498630117</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0.80399197752839091</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="0">
-        <v>0</v>
+        <v>0.9689646703098671</v>
       </c>
       <c r="J18" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.97883166225457008</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.78024530318872132</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0.83576627319285901</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.7232292182428991</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0</v>
+        <v>0.57412761589297601</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.62259628577476966</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3965,7 +3965,7 @@
         <v>0</v>
       </c>
       <c r="AR19" s="0">
-        <v>0</v>
+        <v>0.62648608458314237</v>
       </c>
       <c r="AS19" s="0">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="AU19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV19" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.88582829327409462</v>
       </c>
       <c r="S20" s="0">
-        <v>0</v>
+        <v>0.89795791675590386</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.90790536406553057</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4219,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="BH20" s="0">
-        <v>0</v>
+        <v>0.70934715116374081</v>
       </c>
       <c r="BI20" s="0">
         <v>0</v>
@@ -4231,7 +4231,7 @@
         <v>0</v>
       </c>
       <c r="BL20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM20" s="0">
         <v>0</v>
@@ -4302,22 +4302,22 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.8054000139297941</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.67039950896131062</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.5715998246741758</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.75716139681334194</v>
       </c>
       <c r="X21" s="0">
-        <v>0</v>
+        <v>0.9540349443120455</v>
       </c>
       <c r="Y21" s="0">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="BA21" s="0">
-        <v>0</v>
+        <v>0.50354134567402897</v>
       </c>
       <c r="BB21" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.52778111246650006</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.60044879365447712</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.80355109322147755</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="0">
-        <v>0</v>
+        <v>0.5533879468348889</v>
       </c>
       <c r="AR22" s="0">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="BF22" s="0">
-        <v>0</v>
+        <v>0.53662128025538258</v>
       </c>
       <c r="BG22" s="0">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="BP22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="0">
-        <v>0</v>
+        <v>0.64331893711858457</v>
       </c>
       <c r="K23" s="0">
         <v>0</v>
@@ -4720,16 +4720,16 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.57822322459503439</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.94905808057291674</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.75241793111054622</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="AA23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="0">
         <v>0</v>
@@ -4801,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="AV23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW23" s="0">
         <v>0</v>
@@ -4875,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="0">
-        <v>0</v>
+        <v>0.83285061571440422</v>
       </c>
       <c r="E24" s="0">
         <v>0</v>
@@ -4926,22 +4926,22 @@
         <v>0</v>
       </c>
       <c r="U24" s="0">
-        <v>0</v>
+        <v>0.93788004093857325</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.81226088759201343</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.77465093798830087</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0</v>
+        <v>0.99645452154500691</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="AS24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="0">
         <v>0</v>
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="0">
         <v>0</v>
@@ -5141,16 +5141,16 @@
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>0</v>
+        <v>0.82254763682927745</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.57223042266365343</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.86878149911686098</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5240,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="BE25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF25" s="0">
         <v>0</v>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="BK25" s="0">
-        <v>0</v>
+        <v>0.90504980600518525</v>
       </c>
       <c r="BL25" s="0">
         <v>0</v>
@@ -5347,19 +5347,19 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.8079615595611358</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0</v>
+        <v>0.99137243242122908</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.79799112109634351</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="AE26" s="0">
-        <v>0</v>
+        <v>0.52216952091953639</v>
       </c>
       <c r="AF26" s="0">
         <v>0</v>
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="AN26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="0">
         <v>0</v>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="AU26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV26" s="0">
         <v>0</v>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="BP26" s="0">
-        <v>0</v>
+        <v>0.87677107347155536</v>
       </c>
     </row>
     <row r="27">
@@ -5523,13 +5523,13 @@
         <v>0</v>
       </c>
       <c r="N27" s="0">
-        <v>0</v>
+        <v>0.90959586391653002</v>
       </c>
       <c r="O27" s="0">
         <v>0</v>
       </c>
       <c r="P27" s="0">
-        <v>0</v>
+        <v>0.71247568239666892</v>
       </c>
       <c r="Q27" s="0">
         <v>0</v>
@@ -5550,22 +5550,22 @@
         <v>0</v>
       </c>
       <c r="W27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="0">
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.60875526107405831</v>
       </c>
       <c r="Z27" s="0">
-        <v>0</v>
+        <v>0.7091857071606944</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0</v>
+        <v>0.74718900308614</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5607,19 +5607,19 @@
         <v>0</v>
       </c>
       <c r="AP27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ27" s="0">
         <v>0</v>
       </c>
       <c r="AR27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS27" s="0">
         <v>0</v>
       </c>
       <c r="AT27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU27" s="0">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="BE27" s="0">
-        <v>0</v>
+        <v>0.50083359211173561</v>
       </c>
       <c r="BF27" s="0">
         <v>0</v>
@@ -5661,10 +5661,10 @@
         <v>0</v>
       </c>
       <c r="BH27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ27" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.81883647395669446</v>
       </c>
       <c r="AA28" s="0">
-        <v>0</v>
+        <v>0.83686444461217246</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5840,7 +5840,7 @@
         <v>0</v>
       </c>
       <c r="AY28" s="0">
-        <v>0</v>
+        <v>0.87273342097111883</v>
       </c>
       <c r="AZ28" s="0">
         <v>0</v>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="BN28" s="0">
-        <v>0</v>
+        <v>0.52709055495409829</v>
       </c>
       <c r="BO28" s="0">
         <v>0</v>
@@ -5896,7 +5896,7 @@
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" s="0">
         <v>0</v>
@@ -5977,16 +5977,16 @@
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0</v>
+        <v>0.87720150726799084</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0.5643601263323017</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6135,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0</v>
+        <v>0.98806466869329512</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0</v>
+        <v>0.63805259011025073</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.94473135379287743</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6231,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="AR30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS30" s="0">
         <v>0</v>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="Z31" s="0">
-        <v>0</v>
+        <v>0.88720178553194806</v>
       </c>
       <c r="AA31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0.68882013567223432</v>
       </c>
       <c r="AD31" s="0">
-        <v>0</v>
+        <v>0.86251675601035727</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.86585775019135724</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.77953271945465163</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.62793045894366761</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.85566904344964856</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.83810126248477745</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.93212283921747763</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.50653713730269945</v>
       </c>
       <c r="AI33" s="0">
-        <v>0</v>
+        <v>0.64194612295996401</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.55615048730992633</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.8834072920279592</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.67993713821200064</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="AW34" s="0">
-        <v>0</v>
+        <v>0.5341768951928223</v>
       </c>
       <c r="AX34" s="0">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="BJ34" s="0">
-        <v>0</v>
+        <v>0.53944455152593018</v>
       </c>
       <c r="BK34" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0</v>
+        <v>0.81957903422662137</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.91974262547946051</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.65804560879105323</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="BD35" s="0">
-        <v>0</v>
+        <v>0.68878379586299121</v>
       </c>
       <c r="BE35" s="0">
         <v>0</v>
@@ -7318,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="BK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL35" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.81546672257284625</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.73224407357100363</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.74069223053906275</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.93261984623808325</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.63465812154043655</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.97467421397113507</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0</v>
+        <v>0.7852974139468849</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.51357838133781286</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="BI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ37" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.54570971780512778</v>
       </c>
       <c r="AK38" s="0">
-        <v>0</v>
+        <v>0.50467825205559091</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.88884162006530865</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.72750337170817614</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7921,7 +7921,7 @@
         <v>0</v>
       </c>
       <c r="BF38" s="0">
-        <v>0</v>
+        <v>0.94167424189157523</v>
       </c>
       <c r="BG38" s="0">
         <v>0</v>
@@ -7945,7 +7945,7 @@
         <v>0</v>
       </c>
       <c r="BN38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO38" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.58784562182625555</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.94149097448007457</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0</v>
+        <v>0.87364664287496185</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0.96878866109262463</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8109,7 +8109,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA39" s="0">
         <v>0</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="Z40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.84297747445574434</v>
       </c>
       <c r="AM40" s="0">
-        <v>0</v>
+        <v>0.57642876590130632</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>1</v>
+        <v>0.72903141723586207</v>
       </c>
       <c r="AP40" s="0">
-        <v>0</v>
+        <v>0.76280899277762582</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0.55655043849908847</v>
       </c>
       <c r="AN41" s="0">
-        <v>1</v>
+        <v>0.76990722605910134</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0</v>
+        <v>0.78893037873433736</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8563,10 +8563,10 @@
         <v>0</v>
       </c>
       <c r="BN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO41" s="0">
-        <v>0</v>
+        <v>0.97163872876892676</v>
       </c>
       <c r="BP41" s="0">
         <v>0</v>
@@ -8583,7 +8583,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" s="0">
         <v>0</v>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0</v>
+        <v>0.70013104249007529</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0</v>
+        <v>0.78148251995440643</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8730,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="BA42" s="0">
-        <v>0</v>
+        <v>0.98712908211319239</v>
       </c>
       <c r="BB42" s="0">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="E43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" s="0">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="0">
-        <v>0</v>
+        <v>0.50208583199108969</v>
       </c>
       <c r="P43" s="0">
         <v>0</v>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="0">
-        <v>0</v>
+        <v>0.61857053025015163</v>
       </c>
       <c r="W43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0</v>
+        <v>0.91747332788033575</v>
       </c>
       <c r="AP43" s="0">
-        <v>0</v>
+        <v>0.74834328700345665</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.58313247447423278</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="0">
         <v>0</v>
@@ -9040,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="0">
-        <v>0</v>
+        <v>0.62478058814832327</v>
       </c>
       <c r="T44" s="0">
         <v>0</v>
@@ -9064,7 +9064,7 @@
         <v>0</v>
       </c>
       <c r="AA44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="0">
         <v>0</v>
@@ -9073,7 +9073,7 @@
         <v>0</v>
       </c>
       <c r="AD44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="0">
         <v>0</v>
@@ -9109,10 +9109,10 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="BA44" s="0">
-        <v>0</v>
+        <v>0.62607693871252956</v>
       </c>
       <c r="BB44" s="0">
         <v>0</v>
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="0">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.73837127340329323</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.71295661371690278</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.63868814263889839</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="AA46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB46" s="0">
         <v>0</v>
@@ -9530,16 +9530,16 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.63157571682074309</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.51240478069162398</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.51056857106774944</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="S47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" s="0">
         <v>0</v>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.7284274152256387</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.59614326753838975</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.93193480564700826</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.54873855633947566</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9760,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="BA47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB47" s="0">
         <v>0</v>
@@ -9876,7 +9876,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.71433639592132547</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.72338766078368533</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.71555289406732581</v>
       </c>
       <c r="AX48" s="0">
-        <v>0</v>
+        <v>0.76685752257171735</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10046,10 +10046,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="0">
-        <v>0</v>
+        <v>0.71480117070924687</v>
       </c>
       <c r="L49" s="0">
-        <v>0</v>
+        <v>0.84698265987056454</v>
       </c>
       <c r="M49" s="0">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="AH49" s="0">
-        <v>0</v>
+        <v>0.82463802952414811</v>
       </c>
       <c r="AI49" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.78964005015078331</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.60958429198806152</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.61904950654733604</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0</v>
+        <v>0.85737619373868057</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.65456070787996568</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.78344332852859366</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10452,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" s="0">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="0">
-        <v>0</v>
+        <v>0.69331969069900867</v>
       </c>
       <c r="AC51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.59268765514996424</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.64889026232639524</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.69738732465589615</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.50075566010065353</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10748,7 +10748,7 @@
         <v>0</v>
       </c>
       <c r="AM52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.57133098478828703</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.86173960284963924</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.56363687682521957</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.72106438232388326</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10900,7 +10900,7 @@
         <v>0</v>
       </c>
       <c r="U53" s="0">
-        <v>0</v>
+        <v>0.76323522168976121</v>
       </c>
       <c r="V53" s="0">
         <v>0</v>
@@ -10963,13 +10963,13 @@
         <v>0</v>
       </c>
       <c r="AP53" s="0">
-        <v>0</v>
+        <v>0.69839613302035508</v>
       </c>
       <c r="AQ53" s="0">
         <v>0</v>
       </c>
       <c r="AR53" s="0">
-        <v>0</v>
+        <v>0.81094651562313469</v>
       </c>
       <c r="AS53" s="0">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>0</v>
       </c>
       <c r="AU53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV53" s="0">
         <v>0</v>
@@ -10990,16 +10990,16 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.66924228682961251</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.77528872204279176</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.78333493107258634</v>
       </c>
       <c r="BC53" s="0">
         <v>0</v>
@@ -11070,7 +11070,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="0">
         <v>0</v>
@@ -11199,10 +11199,10 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.57364441998321269</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.63327466148587863</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>0</v>
+        <v>0.85408760178493015</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="BL54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM54" s="0">
         <v>0</v>
@@ -11244,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="BO54" s="0">
-        <v>0</v>
+        <v>0.58199687589055782</v>
       </c>
       <c r="BP54" s="0">
         <v>0</v>
@@ -11264,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55" s="0">
         <v>0</v>
@@ -11288,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" s="0">
         <v>0</v>
@@ -11417,10 +11417,10 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0</v>
+        <v>0.55517671508549815</v>
       </c>
       <c r="BE55" s="0">
-        <v>0</v>
+        <v>0.50872673717390415</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="BI55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ55" s="0">
         <v>0</v>
@@ -11560,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="AI56" s="0">
-        <v>0</v>
+        <v>0.91227600466458014</v>
       </c>
       <c r="AJ56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0</v>
+        <v>0.54250566571057957</v>
       </c>
       <c r="BC56" s="0">
-        <v>0</v>
+        <v>0.89718752924341771</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0.81577339287256279</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11736,13 +11736,13 @@
         <v>0</v>
       </c>
       <c r="Y57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="0">
         <v>0</v>
       </c>
       <c r="AA57" s="0">
-        <v>0</v>
+        <v>0.94112180471556184</v>
       </c>
       <c r="AB57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0</v>
+        <v>0.60814732069605726</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0.5392417569254182</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.65725940930903359</v>
       </c>
       <c r="BG57" s="0">
-        <v>0</v>
+        <v>0.99723983169028696</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11879,7 +11879,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" s="0">
         <v>0</v>
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="V58" s="0">
-        <v>0</v>
+        <v>0.60471422111549589</v>
       </c>
       <c r="W58" s="0">
         <v>0</v>
@@ -11981,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="AL58" s="0">
-        <v>0</v>
+        <v>0.90727292729986309</v>
       </c>
       <c r="AM58" s="0">
         <v>0</v>
@@ -12035,10 +12035,10 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.69443975944224767</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12088,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0</v>
+        <v>0.69255045609971844</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12253,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0</v>
+        <v>0.78017221071759457</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.52775772099525853</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>0</v>
+        <v>0.63169039029778662</v>
       </c>
       <c r="U60" s="0">
         <v>0</v>
@@ -12360,7 +12360,7 @@
         <v>0</v>
       </c>
       <c r="AA60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>0</v>
+        <v>0.71589416929596894</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0</v>
+        <v>0.77210418320379759</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.69801258753624928</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12480,10 +12480,10 @@
         <v>0</v>
       </c>
       <c r="BO60" s="0">
-        <v>0</v>
+        <v>0.76495050259725039</v>
       </c>
       <c r="BP60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -12494,10 +12494,10 @@
         <v>0</v>
       </c>
       <c r="C61" s="0">
-        <v>0</v>
+        <v>0.74572469068206781</v>
       </c>
       <c r="D61" s="0">
-        <v>0</v>
+        <v>0.54287275413670244</v>
       </c>
       <c r="E61" s="0">
         <v>0</v>
@@ -12566,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="AA61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="0">
         <v>0</v>
@@ -12596,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="0">
         <v>0</v>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="BC61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.68049116431687184</v>
       </c>
       <c r="BH61" s="0">
-        <v>0</v>
+        <v>0.6381599608075722</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.59642677918222264</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.69282500623186838</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12694,7 +12694,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0</v>
+        <v>0.70918668247288019</v>
       </c>
       <c r="B62" s="0">
         <v>0</v>
@@ -12793,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="AH62" s="0">
-        <v>0</v>
+        <v>0.95413161296338078</v>
       </c>
       <c r="AI62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.75493597504164711</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.77074573892393705</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.84057526078682521</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12972,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="0">
-        <v>0</v>
+        <v>0.97705962673399571</v>
       </c>
       <c r="Z63" s="0">
         <v>0</v>
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="AI63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.99219601337756191</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.63135205597080957</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13163,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="T64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64" s="0">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="BB64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.59838129574878496</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.83677396799202808</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0.74717436986057884</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.71202761283568305</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0.78791394032246032</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.52502792817721988</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.52314348065278216</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13554,7 +13554,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="0">
-        <v>0</v>
+        <v>0.68535891254168546</v>
       </c>
       <c r="N66" s="0">
         <v>0</v>
@@ -13599,7 +13599,7 @@
         <v>0</v>
       </c>
       <c r="AB66" s="0">
-        <v>0</v>
+        <v>0.86707015611994864</v>
       </c>
       <c r="AC66" s="0">
         <v>0</v>
@@ -13629,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="AL66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM66" s="0">
         <v>0</v>
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="AO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP66" s="0">
         <v>0</v>
@@ -13707,10 +13707,10 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.91290434563248946</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.6364811824135852</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13719,12 +13719,12 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>1</v>
+        <v>0.63567939900797787</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13844,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="AO67" s="0">
-        <v>0</v>
+        <v>0.6952997547282429</v>
       </c>
       <c r="AP67" s="0">
         <v>0</v>
@@ -13883,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="BB67" s="0">
-        <v>0</v>
+        <v>0.81446974457504806</v>
       </c>
       <c r="BC67" s="0">
         <v>0</v>
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="BH67" s="0">
-        <v>0</v>
+        <v>0.5135362385882678</v>
       </c>
       <c r="BI67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.90527439212463912</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.81236872212774913</v>
       </c>
     </row>
     <row r="68">
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.73958028198348091</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13993,7 +13993,7 @@
         <v>0</v>
       </c>
       <c r="V68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W68" s="0">
         <v>0</v>
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="Z68" s="0">
-        <v>0</v>
+        <v>0.95775150455495583</v>
       </c>
       <c r="AA68" s="0">
         <v>0</v>
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="BH68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>1</v>
+        <v>0.91691981666982292</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.73438543134861278</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject27.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject27.xlsx
@@ -134,7 +134,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>0.57706046606393113</v>
+        <v>0.96110082545191533</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0.9993806985796192</v>
       </c>
       <c r="D2" s="0">
-        <v>0.71642420282907149</v>
+        <v>0.95417425971606762</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0.71593739478407648</v>
+        <v>0.73958028198348091</v>
       </c>
     </row>
     <row r="3">
@@ -543,7 +543,7 @@
         <v>0.96110082545191533</v>
       </c>
       <c r="B3" s="0">
-        <v>0.92288602286586441</v>
+        <v>0.9993806985796192</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0.95417425971606762</v>
       </c>
       <c r="C4" s="0">
-        <v>0.59588791228156879</v>
+        <v>0.6897089149062996</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="0">
-        <v>0.5789075592163474</v>
+        <v>0.6306890490012107</v>
       </c>
       <c r="P4" s="0">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="0">
-        <v>0.64531391387976533</v>
+        <v>0.83285061571440422</v>
       </c>
       <c r="Y4" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0.96790450532032479</v>
       </c>
       <c r="G5" s="0">
-        <v>0.80882384136351171</v>
+        <v>0.90236873251853367</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.50119358831804162</v>
+        <v>0.50987537930513738</v>
       </c>
       <c r="E6" s="0">
-        <v>0.9523386621109009</v>
+        <v>0.96790450532032479</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="0">
-        <v>0.74992901814332424</v>
+        <v>0.83626237631722988</v>
       </c>
       <c r="Q6" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0.96961960219326793</v>
       </c>
       <c r="I7" s="0">
-        <v>0.69998820410446139</v>
+        <v>0.89534281103700408</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="G8" s="0">
-        <v>0.65101129288136939</v>
+        <v>0.96961960219326793</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.57041898036404604</v>
+        <v>0.84486099753548283</v>
       </c>
       <c r="J8" s="0">
         <v>0.7814579538484312</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="0">
-        <v>0.66667470444756249</v>
+        <v>0.9689646703098671</v>
       </c>
       <c r="S9" s="0">
         <v>0</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.56044375858964446</v>
+        <v>0.7814579538484312</v>
       </c>
       <c r="I10" s="0">
         <v>0</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.83177773762442175</v>
+        <v>0.87837628519237487</v>
       </c>
       <c r="L10" s="0">
-        <v>0.51604309108080504</v>
+        <v>0.72689287498372179</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.54033075788977669</v>
+        <v>0.54453665191728451</v>
       </c>
       <c r="J11" s="0">
         <v>0.87837628519237487</v>
@@ -2424,7 +2424,7 @@
         <v>0.72689287498372179</v>
       </c>
       <c r="K12" s="0">
-        <v>0.6849452082331231</v>
+        <v>0.95702964548208347</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>0.97474107691352319</v>
+        <v>0.97657581575532681</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.79718809044935157</v>
+        <v>0.95929240412832928</v>
       </c>
       <c r="L13" s="0">
         <v>0</v>
@@ -2642,13 +2642,13 @@
         <v>0.76658833869072818</v>
       </c>
       <c r="O13" s="0">
-        <v>0.74209199465588749</v>
+        <v>0.94316817674255304</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
       </c>
       <c r="Q13" s="0">
-        <v>0.7480409501294899</v>
+        <v>0.84194077122452671</v>
       </c>
       <c r="R13" s="0">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0.97657581575532681</v>
       </c>
       <c r="M14" s="0">
-        <v>0.69091489598753197</v>
+        <v>0.76658833869072818</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0.7859744046415077</v>
+        <v>0.93349466844673978</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="0">
-        <v>0.5398745184573176</v>
+        <v>0.71247568239666892</v>
       </c>
       <c r="AB16" s="0">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0.78320451498630117</v>
+        <v>0.92869094038679911</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0.80399197752839091</v>
+        <v>0.83576627319285901</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0.97883166225457008</v>
       </c>
       <c r="T18" s="0">
-        <v>0.78024530318872132</v>
+        <v>0.88582829327409462</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3887,16 +3887,16 @@
         <v>0.83576627319285901</v>
       </c>
       <c r="R19" s="0">
-        <v>0.7232292182428991</v>
+        <v>0.97883166225457008</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.57412761589297601</v>
+        <v>0.89795791675590386</v>
       </c>
       <c r="U19" s="0">
-        <v>0.62259628577476966</v>
+        <v>0.8054000139297941</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>0.8054000139297941</v>
       </c>
       <c r="T21" s="0">
-        <v>0.67039950896131062</v>
+        <v>0.90790536406553057</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="BA21" s="0">
-        <v>0.50354134567402897</v>
+        <v>0.76323522168976121</v>
       </c>
       <c r="BB21" s="0">
         <v>0</v>
@@ -4514,16 +4514,16 @@
         <v>0</v>
       </c>
       <c r="U22" s="0">
-        <v>0.52778111246650006</v>
+        <v>0.5715998246741758</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0.60044879365447712</v>
+        <v>0.94905808057291674</v>
       </c>
       <c r="X22" s="0">
-        <v>0.80355109322147755</v>
+        <v>0.81226088759201343</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="0">
-        <v>0.5533879468348889</v>
+        <v>0.61857053025015163</v>
       </c>
       <c r="AR22" s="0">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="BF22" s="0">
-        <v>0.53662128025538258</v>
+        <v>0.60471422111549589</v>
       </c>
       <c r="BG22" s="0">
         <v>0</v>
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="0">
-        <v>0.64331893711858457</v>
+        <v>0.69018585111505093</v>
       </c>
       <c r="K23" s="0">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>0.57822322459503439</v>
+        <v>0.75716139681334194</v>
       </c>
       <c r="V23" s="0">
         <v>0.94905808057291674</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.75241793111054622</v>
+        <v>0.77465093798830087</v>
       </c>
       <c r="Y23" s="0">
         <v>0</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="U24" s="0">
-        <v>0.93788004093857325</v>
+        <v>0.9540349443120455</v>
       </c>
       <c r="V24" s="0">
         <v>0.81226088759201343</v>
@@ -5141,13 +5141,13 @@
         <v>0</v>
       </c>
       <c r="X25" s="0">
-        <v>0.82254763682927745</v>
+        <v>0.99645452154500691</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>0.57223042266365343</v>
+        <v>0.8079615595611358</v>
       </c>
       <c r="AA25" s="0">
         <v>0.86878149911686098</v>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="BK25" s="0">
-        <v>0.90504980600518525</v>
+        <v>0.97705962673399571</v>
       </c>
       <c r="BL25" s="0">
         <v>0</v>
@@ -5359,7 +5359,7 @@
         <v>0.99137243242122908</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.79799112109634351</v>
+        <v>0.81883647395669446</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="AE26" s="0">
-        <v>0.52216952091953639</v>
+        <v>0.88720178553194806</v>
       </c>
       <c r="AF26" s="0">
         <v>0</v>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="BP26" s="0">
-        <v>0.87677107347155536</v>
+        <v>0.95775150455495583</v>
       </c>
     </row>
     <row r="27">
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="0">
-        <v>0.90959586391653002</v>
+        <v>0.97309020556738668</v>
       </c>
       <c r="O27" s="0">
         <v>0</v>
@@ -5556,16 +5556,16 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.60875526107405831</v>
+        <v>0.86878149911686098</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.7091857071606944</v>
+        <v>0.99137243242122908</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.74718900308614</v>
+        <v>0.83686444461217246</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="BE27" s="0">
-        <v>0.50083359211173561</v>
+        <v>0.94112180471556184</v>
       </c>
       <c r="BF27" s="0">
         <v>0</v>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="BN28" s="0">
-        <v>0.52709055495409829</v>
+        <v>0.86707015611994864</v>
       </c>
       <c r="BO28" s="0">
         <v>0</v>
@@ -5983,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.87720150726799084</v>
+        <v>0.98806466869329512</v>
       </c>
       <c r="AE29" s="0">
-        <v>0.5643601263323017</v>
+        <v>0.68882013567223432</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.63805259011025073</v>
+        <v>0.86251675601035727</v>
       </c>
       <c r="AF30" s="0">
         <v>0.94473135379287743</v>
@@ -6601,16 +6601,16 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>0.77953271945465163</v>
+        <v>0.94473135379287743</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.62793045894366761</v>
+        <v>0.86585775019135724</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>0.85566904344964856</v>
+        <v>0.93212283921747763</v>
       </c>
       <c r="AH32" s="0">
         <v>0.83810126248477745</v>
@@ -6819,10 +6819,10 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.50653713730269945</v>
+        <v>0.8834072920279592</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.64194612295996401</v>
+        <v>0.81957903422662137</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.55615048730992633</v>
+        <v>0.83810126248477745</v>
       </c>
       <c r="AG34" s="0">
         <v>0.8834072920279592</v>
@@ -7031,7 +7031,7 @@
         <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>0.67993713821200064</v>
+        <v>0.81546672257284625</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7070,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="AW34" s="0">
-        <v>0.5341768951928223</v>
+        <v>0.82463802952414811</v>
       </c>
       <c r="AX34" s="0">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="BJ34" s="0">
-        <v>0.53944455152593018</v>
+        <v>0.95413161296338078</v>
       </c>
       <c r="BK34" s="0">
         <v>0</v>
@@ -7297,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="BD35" s="0">
-        <v>0.68878379586299121</v>
+        <v>0.91227600466458014</v>
       </c>
       <c r="BE35" s="0">
         <v>0</v>
@@ -7440,13 +7440,13 @@
         <v>0.81546672257284625</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.73224407357100363</v>
+        <v>0.91974262547946051</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>0.74069223053906275</v>
+        <v>0.97467421397113507</v>
       </c>
       <c r="AL36" s="0">
         <v>0.93261984623808325</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.63465812154043655</v>
+        <v>0.65804560879105323</v>
       </c>
       <c r="AJ37" s="0">
         <v>0.97467421397113507</v>
@@ -7658,7 +7658,7 @@
         <v>0.7852974139468849</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.51357838133781286</v>
+        <v>0.58784562182625555</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.54570971780512778</v>
+        <v>0.93261984623808325</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.50467825205559091</v>
+        <v>0.7852974139468849</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0.88884162006530865</v>
+        <v>0.94149097448007457</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.72750337170817614</v>
+        <v>0.84297747445574434</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8276,13 +8276,13 @@
         <v>0.84297747445574434</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.57642876590130632</v>
+        <v>0.87364664287496185</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.72903141723586207</v>
+        <v>0.76990722605910134</v>
       </c>
       <c r="AP40" s="0">
         <v>0.76280899277762582</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.55655043849908847</v>
+        <v>0.96878866109262463</v>
       </c>
       <c r="AN41" s="0">
         <v>0.76990722605910134</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.78893037873433736</v>
+        <v>0.91747332788033575</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.70013104249007529</v>
+        <v>0.76280899277762582</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="0">
-        <v>0.50208583199108969</v>
+        <v>0.96610494848358663</v>
       </c>
       <c r="P43" s="0">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>0.91747332788033575</v>
       </c>
       <c r="AP43" s="0">
-        <v>0.74834328700345665</v>
+        <v>0.78148251995440643</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.58313247447423278</v>
+        <v>0.73837127340329323</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9040,7 +9040,7 @@
         <v>0</v>
       </c>
       <c r="S44" s="0">
-        <v>0.62478058814832327</v>
+        <v>0.62648608458314237</v>
       </c>
       <c r="T44" s="0">
         <v>0</v>
@@ -9142,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="BA44" s="0">
-        <v>0.62607693871252956</v>
+        <v>0.81094651562313469</v>
       </c>
       <c r="BB44" s="0">
         <v>0</v>
@@ -9330,7 +9330,7 @@
         <v>0.71295661371690278</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.63868814263889839</v>
+        <v>0.7284274152256387</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9530,16 +9530,16 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.63157571682074309</v>
+        <v>0.71295661371690278</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0.51240478069162398</v>
+        <v>0.59614326753838975</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.51056857106774944</v>
+        <v>0.71433639592132547</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0.93193480564700826</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.54873855633947566</v>
+        <v>0.78964005015078331</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0.71433639592132547</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.72338766078368533</v>
+        <v>0.93193480564700826</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0.71555289406732581</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.76685752257171735</v>
+        <v>0.85737619373868057</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10046,10 +10046,10 @@
         <v>0</v>
       </c>
       <c r="K49" s="0">
-        <v>0.71480117070924687</v>
+        <v>0.85436868324846849</v>
       </c>
       <c r="L49" s="0">
-        <v>0.84698265987056454</v>
+        <v>0.90911445705451532</v>
       </c>
       <c r="M49" s="0">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0.78964005015078331</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.60958429198806152</v>
+        <v>0.71555289406732581</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="AB51" s="0">
-        <v>0.69331969069900867</v>
+        <v>0.87273342097111883</v>
       </c>
       <c r="AC51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.59268765514996424</v>
+        <v>0.61904950654733604</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.64889026232639524</v>
+        <v>0.65456070787996568</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>0.69738732465589615</v>
+        <v>0.86173960284963924</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.50075566010065353</v>
+        <v>0.66924228682961251</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.57133098478828703</v>
+        <v>0.78344332852859366</v>
       </c>
       <c r="AY52" s="0">
         <v>0.86173960284963924</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.56363687682521957</v>
+        <v>0.77528872204279176</v>
       </c>
       <c r="BB52" s="0">
         <v>0.72106438232388326</v>
@@ -10963,7 +10963,7 @@
         <v>0</v>
       </c>
       <c r="AP53" s="0">
-        <v>0.69839613302035508</v>
+        <v>0.98712908211319239</v>
       </c>
       <c r="AQ53" s="0">
         <v>0</v>
@@ -11199,10 +11199,10 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.57364441998321269</v>
+        <v>0.72106438232388326</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.63327466148587863</v>
+        <v>0.78333493107258634</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11244,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="BO54" s="0">
-        <v>0.58199687589055782</v>
+        <v>0.81446974457504806</v>
       </c>
       <c r="BP54" s="0">
         <v>0</v>
@@ -11417,10 +11417,10 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.55517671508549815</v>
+        <v>0.89718752924341771</v>
       </c>
       <c r="BE55" s="0">
-        <v>0.50872673717390415</v>
+        <v>0.60814732069605726</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.54250566571057957</v>
+        <v>0.85408760178493015</v>
       </c>
       <c r="BC56" s="0">
         <v>0.89718752924341771</v>
@@ -11829,13 +11829,13 @@
         <v>0.60814732069605726</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.5392417569254182</v>
+        <v>0.81577339287256279</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0.65725940930903359</v>
+        <v>0.69443975944224767</v>
       </c>
       <c r="BG57" s="0">
         <v>0.99723983169028696</v>
@@ -11981,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="AL58" s="0">
-        <v>0.90727292729986309</v>
+        <v>0.94167424189157523</v>
       </c>
       <c r="AM58" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.69255045609971844</v>
+        <v>0.99723983169028696</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0.78017221071759457</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.52775772099525853</v>
+        <v>0.68049116431687184</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12339,7 +12339,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="0">
-        <v>0.63169039029778662</v>
+        <v>0.70934715116374081</v>
       </c>
       <c r="U60" s="0">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.71589416929596894</v>
+        <v>0.78017221071759457</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12465,7 +12465,7 @@
         <v>0.77210418320379759</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.69801258753624928</v>
+        <v>0.75493597504164711</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12494,10 +12494,10 @@
         <v>0</v>
       </c>
       <c r="C61" s="0">
-        <v>0.74572469068206781</v>
+        <v>0.88299215152694344</v>
       </c>
       <c r="D61" s="0">
-        <v>0.54287275413670244</v>
+        <v>0.84541825834657125</v>
       </c>
       <c r="E61" s="0">
         <v>0</v>
@@ -12665,16 +12665,16 @@
         <v>0.68049116431687184</v>
       </c>
       <c r="BH61" s="0">
-        <v>0.6381599608075722</v>
+        <v>0.77210418320379759</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.59642677918222264</v>
+        <v>0.77074573892393705</v>
       </c>
       <c r="BK61" s="0">
-        <v>0.69282500623186838</v>
+        <v>0.99219601337756191</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12694,7 +12694,7 @@
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>0.70918668247288019</v>
+        <v>0.81292159141504106</v>
       </c>
       <c r="B62" s="0">
         <v>0</v>
@@ -13089,7 +13089,7 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0.63135205597080957</v>
+        <v>0.83677396799202808</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0.59838129574878496</v>
+        <v>0.84057526078682521</v>
       </c>
       <c r="BK64" s="0">
         <v>0.83677396799202808</v>
@@ -13298,10 +13298,10 @@
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>0.74717436986057884</v>
+        <v>0.78791394032246032</v>
       </c>
       <c r="BN64" s="0">
-        <v>0.71202761283568305</v>
+        <v>0.91290434563248946</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13507,10 +13507,10 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.52502792817721988</v>
+        <v>0.6364811824135852</v>
       </c>
       <c r="BO65" s="0">
-        <v>0.52314348065278216</v>
+        <v>0.90527439212463912</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13554,7 +13554,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="0">
-        <v>0.68535891254168546</v>
+        <v>0.69032237693478304</v>
       </c>
       <c r="N66" s="0">
         <v>0</v>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.63567939900797787</v>
+        <v>0.91691981666982292</v>
       </c>
     </row>
     <row r="67">
@@ -13844,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="AO67" s="0">
-        <v>0.6952997547282429</v>
+        <v>0.97163872876892676</v>
       </c>
       <c r="AP67" s="0">
         <v>0</v>
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="BH67" s="0">
-        <v>0.5135362385882678</v>
+        <v>0.76495050259725039</v>
       </c>
       <c r="BI67" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0.91691981666982292</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.73438543134861278</v>
+        <v>0.81236872212774913</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
